--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Ra566beb6b0d54cfb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R457be264ff1949ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R457be264ff1949ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R76c9d5856eb94272"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R76c9d5856eb94272"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rb3b8c0871b4d40c4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rb3b8c0871b4d40c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R9a03fc785c20464c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R9a03fc785c20464c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R45a99fe59a034ad5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R45a99fe59a034ad5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R8d157fd682004b0d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R8d157fd682004b0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R8348765ea1ac47ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R8348765ea1ac47ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R358e875f7f0f4f12"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R358e875f7f0f4f12"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R369e50606b16499e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R369e50606b16499e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R6655419a63814e3b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R6655419a63814e3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rf4f5d7f26320429c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rf4f5d7f26320429c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rc0b5fd2d7fb84029"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/065_JsonColumnOrdering.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="Rc0b5fd2d7fb84029"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons Ordered" sheetId="1" r:id="R80fa971c493648eb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
